--- a/pred_ohlcv/54_21/2020-01-21 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 BCD ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-43935.43432966</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-39114.87862966</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-37830.47862966</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-37830.47862966</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-37830.47862966</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-37830.47862966</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-38069.75972966</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-37446.75972966</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-37878.04082966</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-37878.04082966</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-37878.04082966</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-37983.08182966</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-37983.08182966</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-40031.08172966</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-41181.61522966</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-40947.27492965999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-66776.91062965999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-61809.52572966</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-61996.22572965999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-61996.22572965999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-61848.24822152999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-61980.24822152999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-61973.67231149999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-65756.63681149999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-65893.75910222999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-86284.85852414994</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-78749.87142414993</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-74091.64042056991</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-74091.64042056991</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-74281.4626205699</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-73843.83342056991</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-80453.0603205699</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-80485.3829205699</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-80475.6358815299</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-79382.2158815299</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-74998.8922815299</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-75161.6116815299</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-76434.4286815299</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-75796.6922815299</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-74692.2555815299</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-74692.2555815299</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-77422.66478152989</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-77332.96218152989</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-77832.96218152989</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-78246.27358152989</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-64509.4218815299</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-62081.07778152989</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-62081.07778152989</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-62081.07778152989</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-54931.07778152989</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-57338.9717669399</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-57338.9717669399</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-57662.20836693989</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-59207.73206693989</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-59207.73206693989</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-59207.73206693989</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-59207.73206693989</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-58368.11302737989</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-58514.31282737989</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-60192.85432737989</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-60186.32862987989</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-60315.50172987989</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-58613.96062987989</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-41107.23652987988</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-41986.90328764987</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-42218.63778764987</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-42218.63778764987</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-42218.63778764987</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-44618.86138764987</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-41162.06988764987</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-41032.50818764987</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-42914.98078764987</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-42914.98078764987</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-42766.61228764988</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-41506.22998764988</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-42314.99768764988</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-41615.83538764987</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-41812.09798764987</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-41787.25108764988</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-41220.28599367988</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-41661.40346797988</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-41661.40346797988</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-41687.83466797988</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-41823.25156797987</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-48137.81036797987</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-48137.81036797987</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-54157.54396797987</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-52921.61236797988</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-52921.61236797988</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-56940.51256797988</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-58175.17586797988</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-59021.59396797988</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-59273.54366797988</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-59222.21556797988</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-59642.21556797988</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-59942.21556797988</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-59742.21556797988</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-59820.27276797988</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-67833.84663255987</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-217443.3348200698</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-218569.2348200698</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-202996.1425555898</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-202435.3651555898</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-204079.4926601198</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-192079.4926601198</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-193619.6173601198</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-193459.6173601198</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-193458.6173601198</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-188440.4479601198</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-198809.8807601198</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-197202.8333234798</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-197284.8333234798</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-201662.1586234798</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 BCD ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-37830.47862966</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-37830.47862966</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-38069.75972966</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-37446.75972966</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-37878.04082966</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-37878.04082966</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-37983.08182966</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-37983.08182966</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-40031.08172966</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-41181.61522966</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-40947.27492965999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-61809.52572966</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-65756.63681149999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-86284.85852414994</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-82141.57652414993</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-78749.87142414993</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-78397.24742414991</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-76312.36482414992</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-74297.62772414992</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-83031.66572414992</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-86156.04202414992</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-87290.59002414992</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-80842.11872056991</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-80842.11872056991</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-74040.66832056991</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-74091.64042056991</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-74091.64042056991</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-74091.64042056991</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-74281.4626205699</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-73843.83342056991</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-80453.0603205699</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-80485.3829205699</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-80475.6358815299</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-79382.2158815299</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-74998.8922815299</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-75161.6116815299</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-75161.6116815299</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-75239.7081815299</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-76434.4286815299</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-76434.4286815299</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-76434.4286815299</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-75796.6922815299</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-74692.2555815299</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-74692.2555815299</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-77422.66478152989</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-77332.96218152989</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-77832.96218152989</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-78246.27358152989</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-64509.4218815299</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-62081.07778152989</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-62081.07778152989</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-62081.07778152989</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-54931.07778152989</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-57338.9717669399</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-57338.9717669399</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-57662.20836693989</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-59207.73206693989</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-59207.73206693989</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-59207.73206693989</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-59207.73206693989</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-58368.11302737989</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-58514.31282737989</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-60192.85432737989</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-60186.32862987989</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-60315.50172987989</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-58613.96062987989</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-58742.16062987989</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-58742.16062987989</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-61750.44162987989</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-61750.44162987989</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-45529.82082987989</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-42401.83742987988</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-42401.83742987988</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-42403.83742987988</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-40999.33652987988</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-40998.53652987988</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-41107.23652987988</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-41986.90328764987</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-42218.63778764987</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-42218.63778764987</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-42218.63778764987</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-44618.86138764987</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-41162.06988764987</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-41032.50818764987</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-42914.98078764987</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-42914.98078764987</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-42766.61228764988</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-41506.22998764988</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-42314.99768764988</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-41615.83538764987</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-41812.09798764987</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-41787.25108764988</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-41220.28599367988</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-41661.40346797988</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-41661.40346797988</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-41687.83466797988</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-41823.25156797987</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-48137.81036797987</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-48137.81036797987</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-54157.54396797987</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-56940.51256797988</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-59166.33993255987</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-66358.33653255987</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-66333.74543255987</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-70036.17203255989</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-72428.94013255987</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-67833.84663255987</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-67044.80033255987</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-83892.21365837987</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-217443.3348200698</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-218569.2348200698</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-219406.5681200698</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-238042.4275200698</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-202996.1425555898</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-202435.3651555898</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-204079.4926601198</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-192079.4926601198</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-193619.6173601198</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-193459.6173601198</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-193458.6173601198</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-188440.4479601198</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-198809.8807601198</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-197202.8333234798</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-197284.8333234798</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-201662.1586234798</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
